--- a/biology/Zoologie/Appenzelloise_huppée/Appenzelloise_huppée.xlsx
+++ b/biology/Zoologie/Appenzelloise_huppée/Appenzelloise_huppée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appenzelloise_hupp%C3%A9e</t>
+          <t>Appenzelloise_huppée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Appenzelloise huppée ou poule d'Appenzell huppée (surnommée Tschüperli en dialecte d'Appenzell) est une race de poule domestique d'agrément.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Appenzelloise_hupp%C3%A9e</t>
+          <t>Appenzelloise_huppée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille d'agrément de petite taille, considérée (à tort) comme piètre pondeuse, vive et légère à la poitrine large et proéminente avec un dos légèrement incliné et une queue pleine en forme d'éventail assez relevée. La tête est ornée par une crête formée de deux petites cornes surmontées d'une petite huppe inclinée vers l'avant. 
 Elle est originaire de Suisse, du canton d'Appenzell. La race a été fixée en 1952 d'après d'anciennes variétés huppées élevées depuis au moins le XVe siècle dans les abbayes des environs et compte probablement parmi ses ancêtres la brabançonne, la poule de Crèvecœur et la poule de La Flèche.
-Standard
-Masse idéale : Coq : 1,5 à 1,8 kg ; Poule : 1,2 à 1,5 kg
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Appenzelloise_huppée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appenzelloise_hupp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masse idéale : Coq : 1,5 à 1,8 kg ; Poule : 1,2 à 1,5 kg
 Crête : à cornes (en V)
 Oreillons : blancs
 Couleur des yeux : noirs
